--- a/sludge_doc/source/_static/template_file/BioModel.xlsx
+++ b/sludge_doc/source/_static/template_file/BioModel.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23812" windowHeight="10813" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27436" windowHeight="12741" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="5" r:id="rId1"/>
     <sheet name="Parameter" sheetId="2" r:id="rId2"/>
-    <sheet name="Matrix" sheetId="4" r:id="rId3"/>
+    <sheet name="Matrix" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -40,28 +40,19 @@
     <t>DO</t>
   </si>
   <si>
-    <t>S_N</t>
-  </si>
-  <si>
-    <t>S_P</t>
-  </si>
-  <si>
     <t>S_S</t>
   </si>
   <si>
-    <t>S_UAP</t>
-  </si>
-  <si>
-    <t>S_BAP</t>
-  </si>
-  <si>
-    <t>X_a</t>
-  </si>
-  <si>
-    <t>X_p</t>
-  </si>
-  <si>
-    <t>X_i</t>
+    <t>S_I</t>
+  </si>
+  <si>
+    <t>X_P</t>
+  </si>
+  <si>
+    <t>X_S</t>
+  </si>
+  <si>
+    <t>X_OHO</t>
   </si>
   <si>
     <t>DefaultValue</t>
@@ -73,154 +64,95 @@
     <t>UpperBound</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>f_p</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>0.42</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>f_d</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>q_max_S</t>
+    <t>Y_H</t>
+  </si>
+  <si>
+    <t>gCOD/gCOD</t>
+  </si>
+  <si>
+    <t>b_OHO</t>
   </si>
   <si>
     <t>/d</t>
   </si>
   <si>
-    <t>20</t>
+    <t>K_X</t>
   </si>
   <si>
     <t>K_S</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>K_1</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>K_2</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>q_max_UAP</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>q_max_BAP</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>K_UAP</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>K_BAP</t>
-  </si>
-  <si>
-    <t>85</t>
+    <t>gCOD/m3</t>
+  </si>
+  <si>
+    <t>K_O2</t>
+  </si>
+  <si>
+    <t>u_OHO</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>k_h</t>
+  </si>
+  <si>
+    <t>gCOD/gCOD/d</t>
+  </si>
+  <si>
+    <t>n_h</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
   <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>-1+1.42*Y</t>
-  </si>
-  <si>
-    <t>-0.124*Y</t>
-  </si>
-  <si>
-    <t>-0.2*0.124*Y</t>
-  </si>
-  <si>
-    <t>q_max_S*S_S/(K_S+S_S)*X_a</t>
-  </si>
-  <si>
-    <t>Decay</t>
-  </si>
-  <si>
-    <t>-1.42+1.42*(1-f_d)</t>
-  </si>
-  <si>
-    <t>0.124-0.124*(1-f_d)</t>
-  </si>
-  <si>
-    <t>0.2*0.124-0.2*0.124*(1-f_d)</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>1-f_d</t>
-  </si>
-  <si>
-    <t>b*X_a</t>
-  </si>
-  <si>
-    <t>Growth of UAP</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>K_1*q_max_S*S_S/(K_S+S_S)*X_a</t>
-  </si>
-  <si>
-    <t>Growth of BAP</t>
-  </si>
-  <si>
-    <t>K_2*X_a</t>
-  </si>
-  <si>
-    <t>Decay of UAP</t>
-  </si>
-  <si>
-    <t>q_max_UAP*S_UAP/(K_UAP+S_UAP)*X_a</t>
-  </si>
-  <si>
-    <t>Decay of BAP</t>
-  </si>
-  <si>
-    <t>q_max_BAP*S_BAP/(K_BAP+S_BAP)*X_a</t>
+    <t>Hydrolysis of X_S by X_OHO</t>
+  </si>
+  <si>
+    <t>k_h*X_S/X_OHO/(K_X+X_S/X_OHO)*(S_O2/(K_O2+S_O2)+n_h*K_O2/(K_O2+S_O2))*X_OHO</t>
+  </si>
+  <si>
+    <t>Aerobic growth of X_OHO</t>
+  </si>
+  <si>
+    <t>-(1-Y_H)/Y_H</t>
+  </si>
+  <si>
+    <t>-1/Y_H</t>
+  </si>
+  <si>
+    <t>u_OHO*S_O2/(K_O2+S_O2)*S_S/(K_S+S_S)*X_OHO</t>
+  </si>
+  <si>
+    <t>decay of X_OHO</t>
+  </si>
+  <si>
+    <t>1-f_p</t>
+  </si>
+  <si>
+    <t>b_OHO*X_OHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000000"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -289,39 +221,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,35 +242,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,23 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +322,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -427,9 +337,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,25 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +466,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,25 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,97 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +652,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,30 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -775,6 +683,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,153 +722,157 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyBorder="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -966,7 +898,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="177" fontId="6" fillId="5" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -978,16 +910,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="26" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true" quotePrefix="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="26" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true" quotePrefix="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,10 +993,10 @@
       <rgbColor rgb="009999FF"/>
       <rgbColor rgb="00953735"/>
       <rgbColor rgb="00D7E4BD"/>
-      <rgbColor rgb="00DCE6F2"/>
+      <rgbColor rgb="00CCFFFF"/>
       <rgbColor rgb="00660066"/>
       <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="00376092"/>
+      <rgbColor rgb="000066CC"/>
       <rgbColor rgb="00D9D9D9"/>
       <rgbColor rgb="00000080"/>
       <rgbColor rgb="00FF00FF"/>
@@ -1377,21 +1306,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.79661016949153" defaultRowHeight="13.05" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.79816513761468" defaultRowHeight="14.15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.0169491525424" customWidth="true"/>
-    <col min="2" max="2" width="13.6949152542373" customWidth="true"/>
-    <col min="3" max="3" width="25.8135593220339" customWidth="true"/>
-    <col min="4" max="4" width="20.4152542372881" customWidth="true"/>
+    <col min="1" max="1" width="17.0183486238532" customWidth="true"/>
+    <col min="2" max="2" width="13.697247706422" customWidth="true"/>
+    <col min="3" max="3" width="25.8165137614679" customWidth="true"/>
+    <col min="4" max="4" width="20.4128440366972" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:4">
+    <row r="1" ht="22.35" spans="1:4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:4">
+    <row r="2" ht="22.35" spans="1:4">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1346,7 @@
       </c>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" ht="22.25" spans="1:4">
+    <row r="3" ht="22.35" spans="1:4">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1356,7 @@
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" ht="22.25" spans="1:4">
+    <row r="4" ht="22.35" spans="1:4">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1366,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" ht="22.25" spans="1:4">
+    <row r="5" ht="22.35" spans="1:4">
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1376,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" ht="22.25" spans="1:4">
+    <row r="6" ht="22.35" spans="1:4">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1386,7 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" ht="22.25" spans="1:4">
+    <row r="7" ht="22.35" spans="1:4">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -1466,36 +1395,6 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-    </row>
-    <row r="8" ht="22.25" spans="1:4">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" ht="22.25" spans="1:4">
-      <c r="A9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" ht="22.25" spans="1:4">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1506,34 +1405,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.771186440678" customWidth="true"/>
-    <col min="2" max="2" width="12" customWidth="true"/>
-    <col min="3" max="3" width="24.5423728813559" customWidth="true"/>
-    <col min="4" max="4" width="20.8135593220339" customWidth="true"/>
-    <col min="5" max="5" width="21.0084745762712" customWidth="true"/>
-    <col min="6" max="6" width="18.271186440678" customWidth="true"/>
-    <col min="7" max="7" width="23.4830508474576" customWidth="true"/>
-    <col min="8" max="12" width="8.72881355932203" customWidth="true"/>
-    <col min="13" max="13" width="10.4491525423729" customWidth="true"/>
-    <col min="14" max="14" width="8.72881355932203" customWidth="true"/>
-    <col min="15" max="15" width="9.44915254237288" customWidth="true"/>
-    <col min="16" max="21" width="8.72881355932203" customWidth="true"/>
-    <col min="22" max="22" width="9.44915254237288" customWidth="true"/>
-    <col min="23" max="24" width="8.72881355932203" customWidth="true"/>
-    <col min="25" max="25" width="9.44915254237288" customWidth="true"/>
-    <col min="26" max="1023" width="8.72881355932203" customWidth="true"/>
-    <col min="1024" max="1024" width="8.72881355932203"/>
+    <col min="1" max="1" width="28.7706422018349" customWidth="true"/>
+    <col min="2" max="2" width="27.8440366972477" customWidth="true"/>
+    <col min="3" max="3" width="24.5412844036697" customWidth="true"/>
+    <col min="4" max="4" width="20.8165137614679" customWidth="true"/>
+    <col min="5" max="5" width="21.0091743119266" customWidth="true"/>
+    <col min="6" max="6" width="18.2752293577982" customWidth="true"/>
+    <col min="7" max="7" width="23.4862385321101" customWidth="true"/>
+    <col min="8" max="12" width="8.72477064220183" customWidth="true"/>
+    <col min="13" max="13" width="10.4495412844037" customWidth="true"/>
+    <col min="14" max="14" width="8.72477064220183" customWidth="true"/>
+    <col min="15" max="15" width="9.44954128440367" customWidth="true"/>
+    <col min="16" max="21" width="8.72477064220183" customWidth="true"/>
+    <col min="22" max="22" width="9.44954128440367" customWidth="true"/>
+    <col min="23" max="24" width="8.72477064220183" customWidth="true"/>
+    <col min="25" max="25" width="9.44954128440367" customWidth="true"/>
+    <col min="26" max="1023" width="8.72477064220183" customWidth="true"/>
+    <col min="1024" max="1024" width="8.72477064220183"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.25" spans="1:7">
+    <row r="1" ht="22.35" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1541,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>2</v>
@@ -1556,198 +1455,185 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="22.25" spans="1:7">
+    <row r="2" ht="22.35" spans="1:7">
       <c r="A2" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="16">
+        <v>16</v>
+      </c>
+      <c r="C2" s="15">
+        <f>0.08*1.03^5</f>
+        <v>0.092741925944</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="17">
         <v>1</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" ht="22.25" spans="1:7">
+    <row r="3" ht="22.35" spans="1:7">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="C3" s="15">
+        <f>0.67*1.03^5</f>
+        <v>0.776713629781</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" ht="22.25" spans="1:7">
+    <row r="4" ht="22.35" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="15">
+        <f>0.62*1.03^5</f>
+        <v>0.718749926066</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
-        <v>20</v>
+      <c r="E4" s="17">
+        <v>1</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" ht="22.25" spans="1:7">
+    <row r="5" ht="22.35" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16"/>
+      <c r="C5" s="15">
+        <f>0.03*1.03^5</f>
+        <v>0.034778222229</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17">
+        <v>10</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" ht="22.25" spans="1:7">
+    <row r="6" ht="22.35" spans="1:7">
       <c r="A6" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="C6" s="15">
+        <f>20*1.03^5</f>
+        <v>23.185481486</v>
+      </c>
+      <c r="D6" s="17">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17">
+        <v>50</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" ht="22.25" spans="1:7">
+    <row r="7" ht="22.35" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="16">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15">
+        <f>0.2*1.03^5</f>
+        <v>0.23185481486</v>
+      </c>
+      <c r="D7" s="17">
         <v>0</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17">
+        <v>8</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" ht="22.25" spans="1:7">
+    <row r="8" ht="22.35" spans="1:7">
       <c r="A8" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="15">
+        <f>6*1.03^5</f>
+        <v>6.9556444458</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17">
+        <v>13.2</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" ht="22.25" spans="1:7">
+    <row r="9" ht="22.35" spans="1:7">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="15">
+        <f>2*1.03^5</f>
+        <v>2.3185481486</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17">
+        <v>10</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" ht="22.25" spans="1:7">
+    <row r="10" ht="22.35" spans="1:7">
       <c r="A10" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15">
+        <f>0.4*1.03^5</f>
+        <v>0.46370962972</v>
+      </c>
+      <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17">
+        <v>10</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="22.25" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="22.25" spans="1:7">
-      <c r="A12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1759,29 +1645,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="true" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="true" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="37.864406779661" style="1" customWidth="true"/>
-    <col min="2" max="2" width="44.3474576271186" style="1" customWidth="true"/>
-    <col min="3" max="3" width="42.1271186440678" style="1" customWidth="true"/>
-    <col min="4" max="4" width="47.1610169491525" style="1" customWidth="true"/>
-    <col min="5" max="5" width="24.7033898305085" style="2" customWidth="true"/>
-    <col min="6" max="6" width="27.5508474576271" style="2" customWidth="true"/>
-    <col min="7" max="7" width="25.4067796610169" style="2" customWidth="true"/>
-    <col min="8" max="9" width="19.8050847457627" style="2" customWidth="true"/>
-    <col min="10" max="10" width="15.9915254237288" style="2" customWidth="true"/>
-    <col min="11" max="11" width="62.6864406779661" style="2" customWidth="true"/>
-    <col min="12" max="996" width="9" style="2" customWidth="true"/>
-    <col min="997" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="67.0733944954128" style="1" customWidth="true"/>
+    <col min="2" max="2" width="28.9633027522936" style="1" customWidth="true"/>
+    <col min="3" max="4" width="26.1009174311927" style="1" customWidth="true"/>
+    <col min="5" max="5" width="25.8256880733945" style="2" customWidth="true"/>
+    <col min="6" max="6" width="27.1009174311927" style="2" customWidth="true"/>
+    <col min="7" max="7" width="20.5963302752294" style="2" customWidth="true"/>
+    <col min="8" max="8" width="254.880733944954" style="2" customWidth="true"/>
+    <col min="9" max="993" width="9" style="2" customWidth="true"/>
+    <col min="994" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="true" spans="1:11">
+    <row r="1" customHeight="true" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1803,155 +1686,66 @@
       <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" customHeight="true" spans="1:11">
+      <c r="H1" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customHeight="true" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="7">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>-1</v>
       </c>
-      <c r="F2" s="8"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" customHeight="true" spans="1:11">
+      <c r="H2" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customHeight="true" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" customHeight="true" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="true" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customHeight="true" spans="1:11">
-      <c r="A5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" customHeight="true" spans="1:11">
-      <c r="A6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" customHeight="true" spans="1:11">
-      <c r="A7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="10" t="s">
-        <v>63</v>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
